--- a/medve/data/szekelyhon_medve_curated.xlsx
+++ b/medve/data/szekelyhon_medve_curated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Skydrive\Github\szekelydata\blog\medve\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF59902-E4CA-4820-BA55-6F8CF21ED7A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64000BC-DB69-4EE1-870F-18330D1516EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -330,10 +330,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -675,23 +681,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="38.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="83.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -707,21 +714,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -730,21 +737,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -753,21 +760,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -776,21 +783,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -799,44 +806,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -845,14 +852,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D8">
@@ -862,20 +869,20 @@
         <v>3</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D9">
@@ -891,21 +898,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -914,21 +921,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -937,14 +944,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D12">
@@ -960,21 +967,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -983,14 +990,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D14">
@@ -1006,21 +1013,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1029,14 +1036,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D16">
@@ -1052,21 +1059,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1075,14 +1082,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D18">
@@ -1098,21 +1105,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1121,21 +1128,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1144,21 +1151,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1167,14 +1174,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D22">
@@ -1190,21 +1197,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1213,21 +1220,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1236,14 +1243,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D25">
@@ -1259,14 +1266,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D26">
@@ -1282,21 +1289,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1305,21 +1312,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1328,21 +1335,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1351,21 +1358,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1374,14 +1381,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D31">
@@ -1397,14 +1404,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D32">
@@ -1420,21 +1427,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1443,44 +1450,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1489,21 +1496,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1512,21 +1519,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1535,14 +1542,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D38">
@@ -1552,27 +1559,27 @@
         <v>3</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1581,21 +1588,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>0</v>
